--- a/biology/Histoire de la zoologie et de la botanique/Philipp_Johann_Ferdinand_Schur/Philipp_Johann_Ferdinand_Schur.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philipp_Johann_Ferdinand_Schur/Philipp_Johann_Ferdinand_Schur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Johann Ferdinand Schur (18 février 1799 – 27 mai 1878) est un pharmacien, chimiste et botaniste germano-autrichien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philipp Johann Ferdinand Schur est né le 18 février 1799 à Königsberg. Il étudie la pharmacie et la chimie à Königsberg puis à Berlin mais échoue à obtenir un doctorat avec son ouvrage Metamorphosis plantarum secundum sententiam hodie praevalentem exposita atque exemplis illustrata[1]. Il se rend alors à Vienne où il travaille comme chimiste dans des usines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philipp Johann Ferdinand Schur est né le 18 février 1799 à Königsberg. Il étudie la pharmacie et la chimie à Königsberg puis à Berlin mais échoue à obtenir un doctorat avec son ouvrage Metamorphosis plantarum secundum sententiam hodie praevalentem exposita atque exemplis illustrata. Il se rend alors à Vienne où il travaille comme chimiste dans des usines.
 En parallèle de son activité professionnelle, il s'intéresse à la flore et collecte de nombreux spécimens au cours d'excursions botaniques. En 1866, il publie son œuvre principale Enumeratio plantarum Tanssilvaniae, exhibens: stirpes phanerogamas sponte crescentes atque frequentius cultas, cryptogamas vasculares, characeas etiam muscos hepaticasque.
-Il meurt le 27 mai 1878 à Bielitz des suites d'une pneumonie[1].
+Il meurt le 27 mai 1878 à Bielitz des suites d'une pneumonie.
 </t>
         </is>
       </c>
